--- a/team_specific_matrix/Montana_B.xlsx
+++ b/team_specific_matrix/Montana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1862955032119914</v>
+        <v>0.1965217391304348</v>
       </c>
       <c r="C2">
-        <v>0.5802997858672377</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01284796573875803</v>
+        <v>0.01217391304347826</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.145610278372591</v>
+        <v>0.1686956521739131</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07494646680942184</v>
+        <v>0.07478260869565218</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01045296167247387</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="C3">
-        <v>0.03832752613240418</v>
+        <v>0.03206997084548105</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03484320557491289</v>
+        <v>0.03790087463556852</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7247386759581882</v>
+        <v>0.7376093294460642</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1916376306620209</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06024096385542169</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02409638554216868</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P4">
-        <v>0.4939759036144578</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4216867469879518</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06470588235294118</v>
+        <v>0.0611764705882353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01176470588235294</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05294117647058823</v>
+        <v>0.05411764705882353</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2352941176470588</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01470588235294118</v>
+        <v>0.02117647058823529</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1852941176470588</v>
+        <v>0.1835294117647059</v>
       </c>
       <c r="R6">
-        <v>0.05882352941176471</v>
+        <v>0.06588235294117648</v>
       </c>
       <c r="S6">
         <v>0.3764705882352941</v>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1123188405797101</v>
+        <v>0.1155015197568389</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02536231884057971</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="F7">
-        <v>0.06884057971014493</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108695652173913</v>
+        <v>0.121580547112462</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0108695652173913</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.213768115942029</v>
+        <v>0.1945288753799392</v>
       </c>
       <c r="R7">
-        <v>0.04710144927536232</v>
+        <v>0.05167173252279635</v>
       </c>
       <c r="S7">
-        <v>0.4130434782608696</v>
+        <v>0.4164133738601823</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08802308802308802</v>
+        <v>0.08009153318077804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02164502164502164</v>
+        <v>0.01830663615560641</v>
       </c>
       <c r="E8">
-        <v>0.001443001443001443</v>
+        <v>0.0011441647597254</v>
       </c>
       <c r="F8">
-        <v>0.06782106782106782</v>
+        <v>0.06636155606407322</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09668109668109669</v>
+        <v>0.1018306636155606</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01487414187643021</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.2162471395881007</v>
       </c>
       <c r="R8">
-        <v>0.07792207792207792</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S8">
-        <v>0.4083694083694084</v>
+        <v>0.4221967963386727</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03603603603603604</v>
+        <v>0.03526448362720403</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06606606606606606</v>
+        <v>0.07052896725440806</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08108108108108109</v>
+        <v>0.08312342569269521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009009009009009009</v>
+        <v>0.007556675062972292</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2252252252252252</v>
+        <v>0.2241813602015113</v>
       </c>
       <c r="R9">
-        <v>0.07807807807807808</v>
+        <v>0.07556675062972293</v>
       </c>
       <c r="S9">
-        <v>0.3933933933933934</v>
+        <v>0.4030226700251889</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1222826086956522</v>
+        <v>0.1232394366197183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02554347826086957</v>
+        <v>0.02332746478873239</v>
       </c>
       <c r="E10">
-        <v>0.0005434782608695652</v>
+        <v>0.0008802816901408451</v>
       </c>
       <c r="F10">
-        <v>0.075</v>
+        <v>0.07614436619718309</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09456521739130434</v>
+        <v>0.1025528169014085</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01684782608695652</v>
+        <v>0.02024647887323944</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.221195652173913</v>
+        <v>0.2143485915492958</v>
       </c>
       <c r="R10">
-        <v>0.0766304347826087</v>
+        <v>0.07614436619718309</v>
       </c>
       <c r="S10">
-        <v>0.3673913043478261</v>
+        <v>0.3631161971830986</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1061007957559682</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09814323607427056</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K11">
-        <v>0.143236074270557</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L11">
-        <v>0.636604774535809</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01591511936339523</v>
+        <v>0.01576576576576576</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.784</v>
+        <v>0.7892976588628763</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.152</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.006688963210702341</v>
       </c>
       <c r="L12">
-        <v>0.04</v>
+        <v>0.03678929765886288</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.016</v>
+        <v>0.01337792642140468</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6103896103896104</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3246753246753247</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06493506493506493</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01436781609195402</v>
+        <v>0.0137299771167048</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1896551724137931</v>
+        <v>0.1876430205949657</v>
       </c>
       <c r="I15">
-        <v>0.07471264367816093</v>
+        <v>0.06864988558352403</v>
       </c>
       <c r="J15">
-        <v>0.3793103448275862</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K15">
-        <v>0.05459770114942529</v>
+        <v>0.05034324942791762</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01149425287356322</v>
+        <v>0.011441647597254</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06321839080459771</v>
+        <v>0.06636155606407322</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2126436781609195</v>
+        <v>0.2334096109839817</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02317880794701987</v>
+        <v>0.02406417112299465</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1490066225165563</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="I16">
-        <v>0.09602649006622517</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.4105960264900662</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K16">
-        <v>0.09271523178807947</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03973509933774835</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04966887417218543</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1390728476821192</v>
+        <v>0.1336898395721925</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01455026455026455</v>
+        <v>0.01416122004357298</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1785714285714286</v>
+        <v>0.1840958605664488</v>
       </c>
       <c r="I17">
-        <v>0.1018518518518518</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="J17">
-        <v>0.4338624338624338</v>
+        <v>0.420479302832244</v>
       </c>
       <c r="K17">
-        <v>0.07804232804232804</v>
+        <v>0.07516339869281045</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02645502645502645</v>
+        <v>0.02287581699346405</v>
       </c>
       <c r="N17">
-        <v>0.001322751322751323</v>
+        <v>0.001089324618736384</v>
       </c>
       <c r="O17">
-        <v>0.08068783068783068</v>
+        <v>0.08169934640522876</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08465608465608465</v>
+        <v>0.09586056644880174</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02745098039215686</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.196078431372549</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I18">
-        <v>0.1294117647058824</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4025157232704403</v>
       </c>
       <c r="K18">
-        <v>0.07450980392156863</v>
+        <v>0.07861635220125786</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01568627450980392</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="N18">
-        <v>0.00392156862745098</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="O18">
-        <v>0.08235294117647059</v>
+        <v>0.09119496855345911</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07058823529411765</v>
+        <v>0.07232704402515723</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01377410468319559</v>
+        <v>0.01424121050289275</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2192837465564738</v>
+        <v>0.225634178905207</v>
       </c>
       <c r="I19">
-        <v>0.09366391184573003</v>
+        <v>0.08900756564307966</v>
       </c>
       <c r="J19">
-        <v>0.3763085399449036</v>
+        <v>0.3751668891855808</v>
       </c>
       <c r="K19">
-        <v>0.1057851239669421</v>
+        <v>0.1014686248331108</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02148760330578512</v>
+        <v>0.02225189141076991</v>
       </c>
       <c r="N19">
-        <v>0.0005509641873278236</v>
+        <v>0.001335113484646195</v>
       </c>
       <c r="O19">
-        <v>0.0743801652892562</v>
+        <v>0.07610146862483311</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09476584022038567</v>
+        <v>0.09479305740987984</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Montana_B.xlsx
+++ b/team_specific_matrix/Montana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1965217391304348</v>
+        <v>0.1972685887708649</v>
       </c>
       <c r="C2">
-        <v>0.5478260869565217</v>
+        <v>0.5508345978755691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01217391304347826</v>
+        <v>0.01213960546282246</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1686956521739131</v>
+        <v>0.1684370257966616</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07478260869565218</v>
+        <v>0.07132018209408195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008746355685131196</v>
+        <v>0.007556675062972292</v>
       </c>
       <c r="C3">
-        <v>0.03206997084548105</v>
+        <v>0.03778337531486146</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03790087463556852</v>
+        <v>0.0327455919395466</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7376093294460642</v>
+        <v>0.743073047858942</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1836734693877551</v>
+        <v>0.1788413098236776</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09183673469387756</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02040816326530612</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3877551020408163</v>
+        <v>0.3904761904761905</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0611764705882353</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01411764705882353</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05411764705882353</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2235294117647059</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02117647058823529</v>
+        <v>0.02258726899383984</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1835294117647059</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="R6">
-        <v>0.06588235294117648</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="S6">
-        <v>0.3764705882352941</v>
+        <v>0.37782340862423</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1155015197568389</v>
+        <v>0.1226666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0243161094224924</v>
+        <v>0.02133333333333333</v>
       </c>
       <c r="E7">
-        <v>0.00303951367781155</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="F7">
-        <v>0.06382978723404255</v>
+        <v>0.06133333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.121580547112462</v>
+        <v>0.1226666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00911854103343465</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1945288753799392</v>
+        <v>0.184</v>
       </c>
       <c r="R7">
-        <v>0.05167173252279635</v>
+        <v>0.05066666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4164133738601823</v>
+        <v>0.4213333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08009153318077804</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01830663615560641</v>
+        <v>0.01875</v>
       </c>
       <c r="E8">
-        <v>0.0011441647597254</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="F8">
-        <v>0.06636155606407322</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1018306636155606</v>
+        <v>0.10625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01487414187643021</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2162471395881007</v>
+        <v>0.209375</v>
       </c>
       <c r="R8">
-        <v>0.07894736842105263</v>
+        <v>0.08020833333333334</v>
       </c>
       <c r="S8">
-        <v>0.4221967963386727</v>
+        <v>0.421875</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1007556675062972</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03526448362720403</v>
+        <v>0.03516483516483516</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07052896725440806</v>
+        <v>0.06813186813186813</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08312342569269521</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007556675062972292</v>
+        <v>0.008791208791208791</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2241813602015113</v>
+        <v>0.2131868131868132</v>
       </c>
       <c r="R9">
-        <v>0.07556675062972293</v>
+        <v>0.07912087912087912</v>
       </c>
       <c r="S9">
-        <v>0.4030226700251889</v>
+        <v>0.3956043956043956</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1232394366197183</v>
+        <v>0.1239636794315041</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02332746478873239</v>
+        <v>0.02210817212791157</v>
       </c>
       <c r="E10">
-        <v>0.0008802816901408451</v>
+        <v>0.0007895775759968417</v>
       </c>
       <c r="F10">
-        <v>0.07614436619718309</v>
+        <v>0.07816818002368733</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1025528169014085</v>
+        <v>0.1014607185155942</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02024647887323944</v>
+        <v>0.02092380576391631</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2143485915492958</v>
+        <v>0.2143703118831425</v>
       </c>
       <c r="R10">
-        <v>0.07614436619718309</v>
+        <v>0.07698381365969206</v>
       </c>
       <c r="S10">
-        <v>0.3631161971830986</v>
+        <v>0.3612317410185551</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0990990990990991</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1081081081081081</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K11">
-        <v>0.1351351351351351</v>
+        <v>0.1313725490196078</v>
       </c>
       <c r="L11">
-        <v>0.6418918918918919</v>
+        <v>0.6431372549019608</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01576576576576576</v>
+        <v>0.01372549019607843</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7892976588628763</v>
+        <v>0.7838616714697406</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1538461538461539</v>
+        <v>0.1440922190201729</v>
       </c>
       <c r="K12">
-        <v>0.006688963210702341</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="L12">
-        <v>0.03678929765886288</v>
+        <v>0.04610951008645533</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01337792642140468</v>
+        <v>0.02017291066282421</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6086956521739131</v>
+        <v>0.62</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.32</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06521739130434782</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0137299771167048</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1876430205949657</v>
+        <v>0.1827309236947791</v>
       </c>
       <c r="I15">
-        <v>0.06864988558352403</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="J15">
-        <v>0.3684210526315789</v>
+        <v>0.3775100401606425</v>
       </c>
       <c r="K15">
-        <v>0.05034324942791762</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.011441647597254</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06636155606407322</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2334096109839817</v>
+        <v>0.2309236947791165</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02406417112299465</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1550802139037433</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="J16">
-        <v>0.4117647058823529</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="K16">
-        <v>0.1016042780748663</v>
+        <v>0.1134259259259259</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0374331550802139</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04398148148148148</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1336898395721925</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01416122004357298</v>
+        <v>0.01780415430267062</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1840958605664488</v>
+        <v>0.181998021760633</v>
       </c>
       <c r="I17">
-        <v>0.1045751633986928</v>
+        <v>0.1107814045499505</v>
       </c>
       <c r="J17">
-        <v>0.420479302832244</v>
+        <v>0.4164193867457963</v>
       </c>
       <c r="K17">
-        <v>0.07516339869281045</v>
+        <v>0.0771513353115727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02287581699346405</v>
+        <v>0.02176063303659743</v>
       </c>
       <c r="N17">
-        <v>0.001089324618736384</v>
+        <v>0.0009891196834817012</v>
       </c>
       <c r="O17">
-        <v>0.08169934640522876</v>
+        <v>0.08209693372898121</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09586056644880174</v>
+        <v>0.09099901088031652</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02515723270440252</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1886792452830189</v>
+        <v>0.1787709497206704</v>
       </c>
       <c r="I18">
-        <v>0.1226415094339623</v>
+        <v>0.1201117318435754</v>
       </c>
       <c r="J18">
-        <v>0.4025157232704403</v>
+        <v>0.4189944134078212</v>
       </c>
       <c r="K18">
-        <v>0.07861635220125786</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01572327044025157</v>
+        <v>0.01396648044692737</v>
       </c>
       <c r="N18">
-        <v>0.003144654088050315</v>
+        <v>0.002793296089385475</v>
       </c>
       <c r="O18">
-        <v>0.09119496855345911</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07232704402515723</v>
+        <v>0.06983240223463687</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01424121050289275</v>
+        <v>0.01521826191429716</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.225634178905207</v>
+        <v>0.2226672006407689</v>
       </c>
       <c r="I19">
-        <v>0.08900756564307966</v>
+        <v>0.09291149379255106</v>
       </c>
       <c r="J19">
-        <v>0.3751668891855808</v>
+        <v>0.3704445334401282</v>
       </c>
       <c r="K19">
-        <v>0.1014686248331108</v>
+        <v>0.1029235082098518</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02225189141076991</v>
+        <v>0.0224269122947537</v>
       </c>
       <c r="N19">
-        <v>0.001335113484646195</v>
+        <v>0.001601922306768122</v>
       </c>
       <c r="O19">
-        <v>0.07610146862483311</v>
+        <v>0.07889467360833</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09479305740987984</v>
+        <v>0.09291149379255106</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Montana_B.xlsx
+++ b/team_specific_matrix/Montana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1972685887708649</v>
+        <v>0.1976401179941003</v>
       </c>
       <c r="C2">
-        <v>0.5508345978755691</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01213960546282246</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1684370257966616</v>
+        <v>0.1710914454277286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07132018209408195</v>
+        <v>0.06932153392330384</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007556675062972292</v>
+        <v>0.007389162561576354</v>
       </c>
       <c r="C3">
-        <v>0.03778337531486146</v>
+        <v>0.03694581280788178</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0327455919395466</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.743073047858942</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1788413098236776</v>
+        <v>0.1798029556650246</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08571428571428572</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01904761904761905</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P4">
-        <v>0.5047619047619047</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3904761904761905</v>
+        <v>0.4036697247706422</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06776180698151951</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01232032854209446</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05544147843942505</v>
+        <v>0.05378486055776893</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2197125256673511</v>
+        <v>0.2231075697211155</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02258726899383984</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1806981519507187</v>
+        <v>0.1852589641434263</v>
       </c>
       <c r="R6">
-        <v>0.06365503080082136</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="S6">
-        <v>0.37782340862423</v>
+        <v>0.3725099601593626</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1226666666666667</v>
+        <v>0.1201044386422977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02133333333333333</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="E7">
-        <v>0.002666666666666667</v>
+        <v>0.002610966057441253</v>
       </c>
       <c r="F7">
-        <v>0.06133333333333333</v>
+        <v>0.06527415143603134</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1226666666666667</v>
+        <v>0.1227154046997389</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01333333333333333</v>
+        <v>0.01305483028720627</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.184</v>
+        <v>0.185378590078329</v>
       </c>
       <c r="R7">
-        <v>0.05066666666666667</v>
+        <v>0.04960835509138381</v>
       </c>
       <c r="S7">
-        <v>0.4213333333333333</v>
+        <v>0.4203655352480418</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07916666666666666</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01875</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E8">
-        <v>0.001041666666666667</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F8">
-        <v>0.06666666666666667</v>
+        <v>0.06513026052104208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.10625</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01666666666666667</v>
+        <v>0.01703406813627254</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.209375</v>
+        <v>0.2074148296593187</v>
       </c>
       <c r="R8">
-        <v>0.08020833333333334</v>
+        <v>0.0781563126252505</v>
       </c>
       <c r="S8">
-        <v>0.421875</v>
+        <v>0.4228456913827655</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1142857142857143</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03516483516483516</v>
+        <v>0.03594080338266385</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06813186813186813</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08571428571428572</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008791208791208791</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2131868131868132</v>
+        <v>0.2114164904862579</v>
       </c>
       <c r="R9">
-        <v>0.07912087912087912</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="S9">
-        <v>0.3956043956043956</v>
+        <v>0.3932346723044398</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1239636794315041</v>
+        <v>0.1224646000765404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02210817212791157</v>
+        <v>0.02257941063911213</v>
       </c>
       <c r="E10">
-        <v>0.0007895775759968417</v>
+        <v>0.0007654037504783774</v>
       </c>
       <c r="F10">
-        <v>0.07816818002368733</v>
+        <v>0.07921928817451206</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1014607185155942</v>
+        <v>0.09988518943742825</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02092380576391631</v>
+        <v>0.02066590126291619</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2143703118831425</v>
+        <v>0.2166092613853808</v>
       </c>
       <c r="R10">
-        <v>0.07698381365969206</v>
+        <v>0.07615767317259854</v>
       </c>
       <c r="S10">
-        <v>0.3612317410185551</v>
+        <v>0.3616532721010333</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09411764705882353</v>
+        <v>0.09386973180076628</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1176470588235294</v>
+        <v>0.1187739463601533</v>
       </c>
       <c r="K11">
-        <v>0.1313725490196078</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="L11">
-        <v>0.6431372549019608</v>
+        <v>0.6417624521072797</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01372549019607843</v>
+        <v>0.01340996168582376</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7838616714697406</v>
+        <v>0.7824858757062146</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1440922190201729</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="K12">
-        <v>0.005763688760806916</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="L12">
-        <v>0.04610951008645533</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02017291066282421</v>
+        <v>0.01977401129943503</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.62</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.3203883495145631</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.05825242718446602</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01204819277108434</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1827309236947791</v>
+        <v>0.1795366795366795</v>
       </c>
       <c r="I15">
-        <v>0.06425702811244979</v>
+        <v>0.06563706563706563</v>
       </c>
       <c r="J15">
-        <v>0.3775100401606425</v>
+        <v>0.3861003861003861</v>
       </c>
       <c r="K15">
-        <v>0.04819277108433735</v>
+        <v>0.04826254826254826</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01204819277108434</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07228915662650602</v>
+        <v>0.0694980694980695</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2309236947791165</v>
+        <v>0.2277992277992278</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02314814814814815</v>
+        <v>0.02257336343115124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1574074074074074</v>
+        <v>0.1602708803611738</v>
       </c>
       <c r="I16">
-        <v>0.09027777777777778</v>
+        <v>0.08803611738148984</v>
       </c>
       <c r="J16">
-        <v>0.3981481481481481</v>
+        <v>0.3950338600451467</v>
       </c>
       <c r="K16">
-        <v>0.1134259259259259</v>
+        <v>0.1128668171557562</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03472222222222222</v>
+        <v>0.03386004514672687</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04398148148148148</v>
+        <v>0.04740406320541761</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1388888888888889</v>
+        <v>0.1399548532731377</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01780415430267062</v>
+        <v>0.01712654614652712</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.181998021760633</v>
+        <v>0.1845861084681256</v>
       </c>
       <c r="I17">
-        <v>0.1107814045499505</v>
+        <v>0.1132254995242626</v>
       </c>
       <c r="J17">
-        <v>0.4164193867457963</v>
+        <v>0.4148430066603235</v>
       </c>
       <c r="K17">
-        <v>0.0771513353115727</v>
+        <v>0.07516650808753568</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02176063303659743</v>
+        <v>0.02093244529019981</v>
       </c>
       <c r="N17">
-        <v>0.0009891196834817012</v>
+        <v>0.0009514747859181732</v>
       </c>
       <c r="O17">
-        <v>0.08209693372898121</v>
+        <v>0.08372978116079924</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09099901088031652</v>
+        <v>0.08943862987630828</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0223463687150838</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1787709497206704</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="I18">
-        <v>0.1201117318435754</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="J18">
-        <v>0.4189944134078212</v>
+        <v>0.4203296703296703</v>
       </c>
       <c r="K18">
-        <v>0.0893854748603352</v>
+        <v>0.09065934065934066</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01396648044692737</v>
+        <v>0.01373626373626374</v>
       </c>
       <c r="N18">
-        <v>0.002793296089385475</v>
+        <v>0.002747252747252747</v>
       </c>
       <c r="O18">
-        <v>0.08379888268156424</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06983240223463687</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01521826191429716</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2226672006407689</v>
+        <v>0.2257187257187257</v>
       </c>
       <c r="I19">
-        <v>0.09291149379255106</v>
+        <v>0.09324009324009325</v>
       </c>
       <c r="J19">
-        <v>0.3704445334401282</v>
+        <v>0.3679098679098679</v>
       </c>
       <c r="K19">
-        <v>0.1029235082098518</v>
+        <v>0.1017871017871018</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0224269122947537</v>
+        <v>0.02292152292152292</v>
       </c>
       <c r="N19">
-        <v>0.001601922306768122</v>
+        <v>0.001554001554001554</v>
       </c>
       <c r="O19">
-        <v>0.07889467360833</v>
+        <v>0.07964257964257965</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09291149379255106</v>
+        <v>0.09207459207459208</v>
       </c>
     </row>
   </sheetData>
